--- a/biology/Botanique/Cola_(genre)/Cola_(genre).xlsx
+++ b/biology/Botanique/Cola_(genre)/Cola_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cola est un genre de la famille des Malvaceae (famille des Sterculiaceae selon la classification classique). C'est, entre autres, la même famille que le cacaoyer. Ces arbres produisent les noix de kola.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon le Catalogue of Life, le genre comprend les 110 espèces suivantes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon le Catalogue of Life, le genre comprend les 110 espèces suivantes :
 Cola acuminata
 Cola altissima
 Cola angustifolia
@@ -652,9 +666,11 @@
           <t>Autres espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Tropicos en dénombre 169[2], dont :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Tropicos en dénombre 169, dont :
 Cola bipindensis</t>
         </is>
       </c>
